--- a/Spiel/Spezifikation/Funktionalitätsliste.xlsx
+++ b/Spiel/Spezifikation/Funktionalitätsliste.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tobias\Desktop\Uni\Uni Essen\SEP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tristan\Desktop\Info\SEP\sep_kl\Spiel\Spezifikation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Planung" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="130">
   <si>
     <t>ID</t>
   </si>
@@ -387,6 +387,33 @@
   </si>
   <si>
     <t>Tobias</t>
+  </si>
+  <si>
+    <t>10.1</t>
+  </si>
+  <si>
+    <t>GUI-Elemente erstellen</t>
+  </si>
+  <si>
+    <t>10.1.1</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>10.1.2</t>
+  </si>
+  <si>
+    <t>Hauptchar</t>
+  </si>
+  <si>
+    <t>10.1.2.1</t>
+  </si>
+  <si>
+    <t>Animationen</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
 </sst>
 </file>
@@ -754,15 +781,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="4" customWidth="1"/>
     <col min="2" max="2" width="33" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" style="2" customWidth="1"/>
@@ -936,7 +963,7 @@
         <v>101</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>100</v>
@@ -954,7 +981,7 @@
         <v>101</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>100</v>
@@ -971,6 +998,9 @@
       <c r="C11" s="2" t="s">
         <v>101</v>
       </c>
+      <c r="D11" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="E11" s="6" t="s">
         <v>100</v>
       </c>
@@ -1017,7 +1047,7 @@
         <v>103</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>100</v>
@@ -1251,6 +1281,9 @@
       <c r="B27" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="D27" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="E27" s="6" t="s">
         <v>100</v>
       </c>
@@ -1266,6 +1299,9 @@
       <c r="C28" s="2" t="s">
         <v>106</v>
       </c>
+      <c r="D28" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="E28" s="6" t="s">
         <v>100</v>
       </c>
@@ -1286,6 +1322,9 @@
       <c r="C29" s="2" t="s">
         <v>105</v>
       </c>
+      <c r="D29" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="E29" s="6" t="s">
         <v>100</v>
       </c>
@@ -1303,6 +1342,9 @@
       <c r="C30" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="D30" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="E30" s="6" t="s">
         <v>100</v>
       </c>
@@ -1323,6 +1365,9 @@
       <c r="C31" s="2" t="s">
         <v>101</v>
       </c>
+      <c r="D31" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="E31" s="6" t="s">
         <v>100</v>
       </c>
@@ -1448,9 +1493,6 @@
       <c r="C39" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="E39" s="6" t="s">
         <v>100</v>
       </c>
@@ -1545,7 +1587,7 @@
         <v>104</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>100</v>
@@ -1563,7 +1605,7 @@
         <v>101</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>100</v>
@@ -1582,6 +1624,52 @@
       </c>
       <c r="E47" s="6" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/Spiel/Spezifikation/Funktionalitätsliste.xlsx
+++ b/Spiel/Spezifikation/Funktionalitätsliste.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tristan\Desktop\Info\SEP\sep_kl\Spiel\Spezifikation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Neuer Ordner (2)\Spiel\Spezifikation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="130">
   <si>
     <t>ID</t>
   </si>
@@ -383,9 +383,6 @@
     <t>Bijan</t>
   </si>
   <si>
-    <t>Hauptmenü</t>
-  </si>
-  <si>
     <t>Tobias</t>
   </si>
   <si>
@@ -414,12 +411,15 @@
   </si>
   <si>
     <t>…</t>
+  </si>
+  <si>
+    <t>Grafiken</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -783,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1398,7 +1398,7 @@
         <v>101</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>100</v>
@@ -1416,7 +1416,7 @@
         <v>101</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>100</v>
@@ -1434,7 +1434,7 @@
         <v>101</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>100</v>
@@ -1617,10 +1617,7 @@
         <v>78</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>100</v>
@@ -1628,10 +1625,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>106</v>
@@ -1645,31 +1642,31 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/Spiel/Spezifikation/Funktionalitätsliste.xlsx
+++ b/Spiel/Spezifikation/Funktionalitätsliste.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tobias\Desktop\Uni\Uni Essen\SEP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bijan\Desktop\sep\Spiel\Spezifikation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="936" yWindow="0" windowWidth="20496" windowHeight="7752"/>
   </bookViews>
   <sheets>
     <sheet name="Planung" sheetId="1" r:id="rId1"/>
@@ -810,22 +810,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="33" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="12" style="6" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" style="2" customWidth="1"/>
-    <col min="7" max="8" width="20.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="20.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -851,7 +851,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -866,7 +866,7 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -889,7 +889,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -912,7 +912,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -924,7 +924,7 @@
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -942,7 +942,7 @@
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>64</v>
       </c>
@@ -960,7 +960,7 @@
       </c>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>66</v>
       </c>
@@ -979,7 +979,7 @@
       <c r="F8" s="4"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>68</v>
       </c>
@@ -993,11 +993,11 @@
         <v>118</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>70</v>
       </c>
@@ -1011,11 +1011,11 @@
         <v>118</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
@@ -1029,11 +1029,11 @@
         <v>118</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>26</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>32</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>28</v>
       </c>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>29</v>
       </c>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>96</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>34</v>
       </c>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>36</v>
       </c>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>44</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>38</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>46</v>
       </c>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>48</v>
       </c>
@@ -1316,7 +1316,7 @@
       </c>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>54</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>55</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>82</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>91</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>50</v>
       </c>
@@ -1414,7 +1414,7 @@
       </c>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>58</v>
       </c>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>60</v>
       </c>
@@ -1450,7 +1450,7 @@
       </c>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>62</v>
       </c>
@@ -1468,7 +1468,7 @@
       </c>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>84</v>
       </c>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>86</v>
       </c>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>88</v>
       </c>
@@ -1510,7 +1510,7 @@
       </c>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>52</v>
       </c>
@@ -1525,7 +1525,7 @@
       </c>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>53</v>
       </c>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>111</v>
       </c>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>112</v>
       </c>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>72</v>
       </c>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>74</v>
       </c>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>76</v>
       </c>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>113</v>
       </c>
@@ -1639,7 +1639,7 @@
       </c>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>78</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>120</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>122</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>124</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>126</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>129</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>131</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>133</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>135</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>138</v>
       </c>
